--- a/output/fuden.xlsx
+++ b/output/fuden.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -585,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +603,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,10 +712,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -805,15 +823,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>160035</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -912,15 +939,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>515600</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1019,15 +1055,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>634849</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1126,15 +1171,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>34975</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1233,15 +1287,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>771064</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1340,15 +1403,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>119376</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1447,15 +1519,24 @@
         <v>0.02299959990050377</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>569147</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1554,15 +1635,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>461022</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1661,15 +1751,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>154215</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1768,15 +1867,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>179224</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1875,15 +1983,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>59426</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1982,15 +2099,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>180617</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2089,15 +2215,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>286960</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2196,15 +2331,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>166658</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2303,15 +2447,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>129814</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2410,15 +2563,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>637823</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2517,15 +2679,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>377716</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2624,15 +2795,24 @@
         <v>0.20440252701953</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>3177</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2731,15 +2911,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>197200</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2838,15 +3027,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>20650</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2945,15 +3143,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>551400</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3052,15 +3259,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>88000</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3159,15 +3375,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>30200</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3266,15 +3491,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>42392</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3373,15 +3607,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>169700</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3480,15 +3723,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>246900</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3587,15 +3839,24 @@
         <v>0.7679083104743586</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>208500</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3694,15 +3955,24 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>1646.95</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3801,15 +4071,24 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>52645.945</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3908,15 +4187,24 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>110216.22</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4015,15 +4303,24 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>89804.27499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4122,15 +4419,24 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>167773.04</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4229,15 +4535,24 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>97224.28</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4336,15 +4651,24 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>1646.95</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4443,15 +4767,24 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>52645.945</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4550,15 +4883,24 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>110216.22</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4657,15 +4999,24 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>89804.27499999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4764,15 +5115,24 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>167773.04</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4871,15 +5231,24 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>97224.28</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4978,15 +5347,24 @@
         <v>0.7916676743631647</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>322149</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5085,9 +5463,18 @@
         <v>0.7916676743631647</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>1053000</v>
       </c>
     </row>

--- a/output/fuden.xlsx
+++ b/output/fuden.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -594,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,10 +727,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -781,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U2">
         <v>23</v>
@@ -817,30 +829,36 @@
         <v>2214761</v>
       </c>
       <c r="AG2">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH2">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI2">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ2">
         <v>1989</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>160035</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -897,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U3">
         <v>23</v>
@@ -933,30 +951,36 @@
         <v>4093293</v>
       </c>
       <c r="AG3">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH3">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI3">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ3">
         <v>1989</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>515600</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1013,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U4">
         <v>23</v>
@@ -1049,30 +1073,36 @@
         <v>2565774</v>
       </c>
       <c r="AG4">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH4">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI4">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ4">
         <v>1989</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>634849</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1129,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U5">
         <v>23</v>
@@ -1165,30 +1195,36 @@
         <v>3881838</v>
       </c>
       <c r="AG5">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH5">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI5">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ5">
         <v>1989</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>34975</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1245,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U6">
         <v>23</v>
@@ -1281,30 +1317,36 @@
         <v>4231773</v>
       </c>
       <c r="AG6">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH6">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI6">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ6">
         <v>1989</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>771064</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1361,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U7">
         <v>23</v>
@@ -1397,30 +1439,36 @@
         <v>1570343</v>
       </c>
       <c r="AG7">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH7">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI7">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ7">
         <v>1989</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>119376</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1477,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>82663</v>
+        <v>4091549</v>
       </c>
       <c r="U8">
         <v>23</v>
@@ -1513,30 +1561,36 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>3594106</v>
+        <v>7602992</v>
       </c>
       <c r="AH8">
-        <v>0.02299959990050377</v>
+        <v>0.5381498494276989</v>
       </c>
       <c r="AI8">
+        <v>0.2355109672613098</v>
+      </c>
+      <c r="AJ8">
         <v>1989</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>569147</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1593,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U9">
         <v>38</v>
@@ -1629,30 +1683,36 @@
         <v>9912922</v>
       </c>
       <c r="AG9">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH9">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI9">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ9">
         <v>1989</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>461022</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1709,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U10">
         <v>38</v>
@@ -1745,30 +1805,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH10">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI10">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ10">
         <v>1989</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>154215</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1825,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U11">
         <v>38</v>
@@ -1861,30 +1927,36 @@
         <v>3518583</v>
       </c>
       <c r="AG11">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH11">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI11">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ11">
         <v>1989</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>179224</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1941,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U12">
         <v>38</v>
@@ -1977,30 +2049,36 @@
         <v>5136929</v>
       </c>
       <c r="AG12">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH12">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI12">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ12">
         <v>1989</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>59426</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2057,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U13">
         <v>38</v>
@@ -2093,30 +2171,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG13">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH13">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI13">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ13">
         <v>1989</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>180617</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2173,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U14">
         <v>38</v>
@@ -2209,30 +2293,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG14">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH14">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI14">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ14">
         <v>1989</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>286960</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2289,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U15">
         <v>38</v>
@@ -2325,30 +2415,36 @@
         <v>12175312</v>
       </c>
       <c r="AG15">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH15">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI15">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ15">
         <v>1989</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>166658</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2405,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U16">
         <v>38</v>
@@ -2441,30 +2537,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG16">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH16">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI16">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ16">
         <v>1989</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>129814</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2521,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U17">
         <v>38</v>
@@ -2557,30 +2659,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG17">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH17">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI17">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ17">
         <v>1989</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>637823</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2637,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U18">
         <v>38</v>
@@ -2673,30 +2781,36 @@
         <v>13056447</v>
       </c>
       <c r="AG18">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH18">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI18">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ18">
         <v>1989</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>377716</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2753,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1422540</v>
+        <v>5031125</v>
       </c>
       <c r="U19">
         <v>38</v>
@@ -2789,30 +2903,36 @@
         <v>38993399</v>
       </c>
       <c r="AG19">
-        <v>6959503</v>
+        <v>10568088</v>
       </c>
       <c r="AH19">
-        <v>0.20440252701953</v>
+        <v>0.4760676671125373</v>
       </c>
       <c r="AI19">
+        <v>0.3864384929421481</v>
+      </c>
+      <c r="AJ19">
         <v>1989</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>3177</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2869,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U20">
         <v>30</v>
@@ -2905,30 +3025,36 @@
         <v>1592777</v>
       </c>
       <c r="AG20">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH20">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI20">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ20">
         <v>1989</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>197200</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2985,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U21">
         <v>30</v>
@@ -3021,30 +3147,36 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH21">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI21">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ21">
         <v>1989</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>20650</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3101,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U22">
         <v>30</v>
@@ -3137,30 +3269,36 @@
         <v>1494969</v>
       </c>
       <c r="AG22">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH22">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI22">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ22">
         <v>1989</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>551400</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3217,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U23">
         <v>30</v>
@@ -3253,30 +3391,36 @@
         <v>1498796</v>
       </c>
       <c r="AG23">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH23">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI23">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ23">
         <v>1989</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>88000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3333,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U24">
         <v>30</v>
@@ -3369,30 +3513,36 @@
         <v>2140362</v>
       </c>
       <c r="AG24">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH24">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI24">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ24">
         <v>1989</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>30200</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3449,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U25">
         <v>30</v>
@@ -3485,30 +3635,36 @@
         <v>2070562</v>
       </c>
       <c r="AG25">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH25">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI25">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ25">
         <v>1989</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>42392</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3565,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U26">
         <v>30</v>
@@ -3601,30 +3757,36 @@
         <v>2121035</v>
       </c>
       <c r="AG26">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH26">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI26">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ26">
         <v>1989</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>169700</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3681,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U27">
         <v>30</v>
@@ -3717,30 +3879,36 @@
         <v>1979992</v>
       </c>
       <c r="AG27">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH27">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI27">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ27">
         <v>1989</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>246900</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3797,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2159769</v>
+        <v>4919817</v>
       </c>
       <c r="U28">
         <v>30</v>
@@ -3833,30 +4001,36 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>2812535</v>
+        <v>5572583</v>
       </c>
       <c r="AH28">
-        <v>0.7679083104743586</v>
+        <v>0.8828611435666369</v>
       </c>
       <c r="AI28">
+        <v>0.05956663184738567</v>
+      </c>
+      <c r="AJ28">
         <v>1989</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>208500</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3955,24 +4129,30 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI29">
+        <v>0.7733195180981536</v>
+      </c>
+      <c r="AJ29">
         <v>1989</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>1646.95</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4071,24 +4251,30 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI30">
+        <v>0.7733195180981536</v>
+      </c>
+      <c r="AJ30">
         <v>1989</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>52645.945</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4187,24 +4373,30 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI31">
+        <v>0.7733195180981536</v>
+      </c>
+      <c r="AJ31">
         <v>1989</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>110216.22</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4303,24 +4495,30 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI32">
+        <v>0.7733195180981536</v>
+      </c>
+      <c r="AJ32">
         <v>1989</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>89804.27499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4419,24 +4617,30 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI33">
+        <v>0.7733195180981536</v>
+      </c>
+      <c r="AJ33">
         <v>1989</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>167773.04</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4535,24 +4739,30 @@
         <v>0.1258510068914459</v>
       </c>
       <c r="AI34">
+        <v>0.7733195180981536</v>
+      </c>
+      <c r="AJ34">
         <v>1989</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>97224.28</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4651,24 +4861,30 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI35">
+        <v>0.4166821891633228</v>
+      </c>
+      <c r="AJ35">
         <v>1989</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>1646.95</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4767,24 +4983,30 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI36">
+        <v>0.4166821891633228</v>
+      </c>
+      <c r="AJ36">
         <v>1989</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>52645.945</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4883,24 +5105,30 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI37">
+        <v>0.4166821891633228</v>
+      </c>
+      <c r="AJ37">
         <v>1989</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>110216.22</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4999,24 +5227,30 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI38">
+        <v>0.4166821891633228</v>
+      </c>
+      <c r="AJ38">
         <v>1989</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>89804.27499999999</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5115,24 +5349,30 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI39">
+        <v>0.4166821891633228</v>
+      </c>
+      <c r="AJ39">
         <v>1989</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>167773.04</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5231,24 +5471,30 @@
         <v>0.3707134324365912</v>
       </c>
       <c r="AI40">
+        <v>0.4166821891633228</v>
+      </c>
+      <c r="AJ40">
         <v>1989</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>97224.28</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5347,24 +5593,30 @@
         <v>0.7916676743631647</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1989</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>322149</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5463,18 +5715,24 @@
         <v>0.7916676743631647</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1989</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>1053000</v>
       </c>
     </row>

--- a/output/fuden.xlsx
+++ b/output/fuden.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D4">
         <v>136730</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>260190</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D8">
         <v>199997</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D9">
         <v>449283</v>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1130</v>
+        <v>1094.710717322873</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D11">
         <v>344226</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D13">
         <v>824642.5</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D14">
         <v>824642.5</v>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D16">
         <v>824642.5</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D17">
         <v>824642.5</v>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D18">
         <v>59920</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D22">
         <v>316708</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D24">
         <v>824642.5</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D25">
         <v>824642.5</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D26">
         <v>824642.5</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D27">
         <v>59920</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D30">
         <v>285000</v>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>13220</v>
+        <v>16146.07242861928</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D33">
         <v>2500000</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D36">
         <v>285000</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>10840</v>
+        <v>14093.81249338665</v>
       </c>
       <c r="D37">
         <v>320000</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D39">
         <v>2500000</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>7360</v>
+        <v>7055.001624869326</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>370</v>
+        <v>526.5953412037009</v>
       </c>
       <c r="D42">
         <v>0</v>

--- a/output/fuden.xlsx
+++ b/output/fuden.xlsx
@@ -1477,7 +1477,7 @@
         <v>9502.243585046588</v>
       </c>
       <c r="D8">
-        <v>199997</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>526485</v>
@@ -1599,7 +1599,7 @@
         <v>17288.8595992193</v>
       </c>
       <c r="D9">
-        <v>449283</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>2965.153206179127</v>
       </c>
       <c r="D24">
-        <v>824642.5</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>286960</v>
@@ -3551,7 +3551,7 @@
         <v>1939.33862702996</v>
       </c>
       <c r="D25">
-        <v>824642.5</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>129814</v>
@@ -3673,7 +3673,7 @@
         <v>1577.487171555845</v>
       </c>
       <c r="D26">
-        <v>824642.5</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>637823</v>
@@ -3795,7 +3795,7 @@
         <v>5660.517066940175</v>
       </c>
       <c r="D27">
-        <v>59920</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>377716</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1646.95</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4893,10 +4893,10 @@
         <v>3210.869677115934</v>
       </c>
       <c r="D36">
-        <v>285000</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>52645.945</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>76</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>14093.81249338665</v>
@@ -5018,7 +5018,7 @@
         <v>320000</v>
       </c>
       <c r="E37">
-        <v>110216.22</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>89804.27499999999</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5253,16 +5253,16 @@
         <v>78</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>517.8609592583078</v>
       </c>
       <c r="D39">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>167773.04</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>97224.28</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
